--- a/SeeAttention/SampleGroup.xlsx
+++ b/SeeAttention/SampleGroup.xlsx
@@ -521,12 +521,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -541,8 +547,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1649,8 +1656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1973,10 +1980,10 @@
       <c r="B21">
         <v>1</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="1" t="s">
         <v>69</v>
       </c>
       <c r="E21" t="s">
@@ -2442,7 +2449,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
